--- a/API_project/report/Excel/联系方式ES对比.xlsx
+++ b/API_project/report/Excel/联系方式ES对比.xlsx
@@ -4,39 +4,380 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24228" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2022年01月14日18时31分" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2022年01月14日18时32分" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2022年01月14日18时34分" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2022年01月15日09时37分" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2022年01月15日13时24分" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2022年01月15日16时37分" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2022年01月15日16时46分" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2022年01月15日16时50分" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2022年01月15日16时53分" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2022年01月15日17时59分" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="21">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -44,15 +385,305 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -405,11 +1036,244 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col width="36.6666666666667" customWidth="1" min="2" max="3"/>
+    <col width="23.1111111111111" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>服装</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fa22f62906b6bbd99ba87c93206ba5f0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>青岛酷特智能股份有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'13280846776'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>服装</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fa22f62906b6bbd99ba87c93206ba5f0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>青岛酷特智能股份有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'053289068595'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>自动化</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b1f8a930df14a9a9be410852c6792792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天津振威国际会展集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{'02265834873'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>自动化</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>b1f8a930df14a9a9be410852c6792792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天津振威国际会展集团股份有限公司</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，固话</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'02083953264'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>室内设计</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2c944edefaaa5dc017d2ab0d0953c405</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北京水晶石教育科技有限公司</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，手机</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'13788999988', '13988999988'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>室内设计</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2c944edefaaa5dc017d2ab0d0953c405</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北京水晶石教育科技有限公司</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，固话</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{'051988198830', '05364396492', '051988198821'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>室内设计</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2c944edefaaa5dc017d2ab0d0953c405</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北京水晶石教育科技有限公司</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，邮箱</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{'kefu@85xue.com', 'hezuo@85xue.com'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -450,13 +1314,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,88 +1353,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>洗衣液</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2627b20c2d10a3a4c78d11085392f734</t>
+          <t>5df1cb05dbdfadc61f9d454fdc6a4f3d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光明乳业股份有限公司</t>
+          <t>礼县零零亿家人洗衣液有限公司</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'18709395212', '18093958141'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>控制器</t>
+          <t>洗衣液</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b34d65de67d2bd2fc9ed353f1ddcc509</t>
+          <t>5df1cb05dbdfadc61f9d454fdc6a4f3d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>珠海雷特科技股份有限公司</t>
+          <t>礼县零零亿家人洗衣液有限公司</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ES没有详情页有，固话</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>工程</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ea2d775c295b22ec45f35dafb433d73e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中国十九冶集团有限公司</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，固话</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中医 诊所</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>402aa9bfbc4303153611a9f5d1ca9ac1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广州市保达计算机软件科技有限公司</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，固话</t>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'123@qq.con', '18093958141@163.com'}</t>
         </is>
       </c>
     </row>
@@ -579,13 +1409,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,219 +1445,126 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2627b20c2d10a3a4c78d11085392f734</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光明乳业股份有限公司</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，手机</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{'18917741607'}</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2627b20c2d10a3a4c78d11085392f734</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光明乳业股份有限公司</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，固话</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{'02154657798'}</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>控制器</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>b34d65de67d2bd2fc9ed353f1ddcc509</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>珠海雷特科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，固话</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{'40000618'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>控制器</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>b34d65de67d2bd2fc9ed353f1ddcc509</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>珠海雷特科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，邮箱</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{'luky@goldenname.com', '2101569715@qq.com', '327004128@qq.com'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>控制器</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>b34d65de67d2bd2fc9ed353f1ddcc509</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>珠海雷特科技股份有限公司</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ES有详情页没有，固话</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{'07566208163', '07566208826'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>工程</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ea2d775c295b22ec45f35dafb433d73e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中国十九冶集团有限公司</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，固话</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{'08123506534', '02886915615'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>工程</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ea2d775c295b22ec45f35dafb433d73e</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中国十九冶集团有限公司</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ES有详情页没有，固话</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{'02864375598', '02886912138'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>中医 诊所</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>402aa9bfbc4303153611a9f5d1ca9ac1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广州市保达计算机软件科技有限公司</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ES没有详情页有，固话</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{'087168189005'}</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
         </is>
       </c>
     </row>

--- a/API_project/report/Excel/联系方式ES对比.xlsx
+++ b/API_project/report/Excel/联系方式ES对比.xlsx
@@ -14,6 +14,9 @@
     <sheet name="2022年01月15日16时50分" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="2022年01月15日16时53分" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="2022年01月15日17时59分" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2022年01月19日11时42分" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2022年01月19日16时01分" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2022年01月20日19时21分" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1273,6 +1276,47 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1571,4 +1615,140 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bd9ca5cb96ad748c70bed33d0c24858f</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>郑州福禄寿网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'183********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bd9ca5cb96ad748c70bed33d0c24858f</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>郑州福禄寿网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，手机</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'18336363881'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/API_project/report/Excel/联系方式ES对比.xlsx
+++ b/API_project/report/Excel/联系方式ES对比.xlsx
@@ -17,6 +17,11 @@
     <sheet name="2022年01月19日11时42分" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="2022年01月19日16时01分" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="2022年01月20日19时21分" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2022年01月20日21时46分" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2022年01月20日21时51分" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2022年01月20日22时28分" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2022年01月20日23时11分" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="2022年01月22日14时40分" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1317,6 +1322,341 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bd9ca5cb96ad748c70bed33d0c24858f</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>郑州福禄寿网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'183********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bd9ca5cb96ad748c70bed33d0c24858f</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>郑州福禄寿网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，手机</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'18336363881'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bd9ca5cb96ad748c70bed33d0c24858f</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>郑州福禄寿网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'183********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bd9ca5cb96ad748c70bed33d0c24858f</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>郑州福禄寿网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，手机</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'18336363881'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fa26dcd7ccf5837e9c517f3a216cf937</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>详情页有</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{162}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/API_project/report/Excel/联系方式ES对比.xlsx
+++ b/API_project/report/Excel/联系方式ES对比.xlsx
@@ -22,6 +22,8 @@
     <sheet name="2022年01月20日22时28分" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="2022年01月20日23时11分" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="2022年01月22日14时40分" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="2022年02月24日21时21分" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="2022年02月25日11时21分" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1657,6 +1659,1141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1e0205b78d9c80fe2ac7893fff91c511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湖南安国黄金珠宝连锁有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'073158218128'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>广告公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>f940b6c9f42e9c110ae284c02f66aa07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>石家庄千禧广告装饰有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'18032902762', '13933805421', '18333118822'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>广告公司</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>f940b6c9f42e9c110ae284c02f66aa07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>石家庄千禧广告装饰有限公司</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{'031168073635', '32223207', '20200716'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>广告公司</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>f940b6c9f42e9c110ae284c02f66aa07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>石家庄千禧广告装饰有限公司</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'bluefishlady@yeah.net', '181847662@qq.com', '1404367920@qq.com', '1404367927@qq.com'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4fef97c36e065890def36b68c0cfa7ce</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>洽洽食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'15313956827', '18005692850', '13791168117', '15056926742'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4fef97c36e065890def36b68c0cfa7ce</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>洽洽食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{'02586471382', '2227053', '055162227068'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4fef97c36e065890def36b68c0cfa7ce</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>洽洽食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{'2366815470@qq.com', '38008482@qq.com'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>建筑工程</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ac639aec39de36a7792617409ec79dda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天津二建建筑工程有限公司</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{'0222629399', '5555555', '8888888'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>建筑工程</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ac639aec39de36a7792617409ec79dda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天津二建建筑工程有限公司</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{'tianjinerjiansan@163.com'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1e0205b78d9c80fe2ac7893fff91c511</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湖南安国黄金珠宝连锁有限公司</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'073158218128'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4fef97c36e065890def36b68c0cfa7ce</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>洽洽食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>{'15313956827', '18005692850', '13791168117', '15056926742'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4fef97c36e065890def36b68c0cfa7ce</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>洽洽食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{'02586471382', '2227053', '055162227068'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4fef97c36e065890def36b68c0cfa7ce</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>洽洽食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{'2366815470@qq.com', '38008482@qq.com'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>建筑工程</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ac639aec39de36a7792617409ec79dda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天津二建建筑工程有限公司</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{'0222629399', '5555555', '8888888'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>建筑工程</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ac639aec39de36a7792617409ec79dda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天津二建建筑工程有限公司</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{'tianjinerjiansan@163.com'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>童装店</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>e0c2144fd59e762cf12ee5ee320e7ca2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>深圳市精灵服饰发展有限公司</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{'17724715876'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>童装店</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>e0c2144fd59e762cf12ee5ee320e7ca2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>深圳市精灵服饰发展有限公司</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{'178677500@QQ.COM'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>童装店</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>e0c2144fd59e762cf12ee5ee320e7ca2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>深圳市精灵服饰发展有限公司</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，固话</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{'4008007258'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4f206aee8484d26631591bc84e1391a5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>威海百合生物技术股份有限公司</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{'13562195222', '18663160246', '18766302014', '18663118656', '18766302013'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4f206aee8484d26631591bc84e1391a5</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>威海百合生物技术股份有限公司</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{'06315922626'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4f206aee8484d26631591bc84e1391a5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>威海百合生物技术股份有限公司</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，邮箱</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{'andy0720140404@126.com', '895268963@qq.com', '974916668@qq.cim'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>entname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>五金</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>e2da930a0f8a2020b85d698053ea14dc</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东莞市宏浩五金制品有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'4008933818'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>af7d4ceeec233412790bad11f9016be1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广东顺德月雅泉节能设备有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'4008868949'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>85a64836c1d194eb60ffc5720282da68</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广州旭众食品机械有限公司</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{'02023306360', '055163613088'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>五金</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>e2da930a0f8a2020b85d698053ea14dc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东莞市宏浩五金制品有限公司</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'4008933818'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>af7d4ceeec233412790bad11f9016be1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广东顺德月雅泉节能设备有限公司</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'4008868949'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>食品</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>85a64836c1d194eb60ffc5720282da68</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广州旭众食品机械有限公司</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{'02023306360', '055163613088'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>童装店</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5a8768fbbbdcf800e741890898c1d295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>河北四维创意建筑装饰工程有限公司</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{'185********', '188********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>童装店</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5a8768fbbbdcf800e741890898c1d295</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>河北四维创意建筑装饰工程有限公司</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{'010********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>童装店</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5a8768fbbbdcf800e741890898c1d295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>河北四维创意建筑装饰工程有限公司</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，手机</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{'18511171113', '18811711191'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>童装店</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5a8768fbbbdcf800e741890898c1d295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>河北四维创意建筑装饰工程有限公司</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，固话</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'01060889333'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>158fa3a209b6419e58e81b29b0654e2c</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上海福泰珠宝首饰有限公司</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>{'185********', '188********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>158fa3a209b6419e58e81b29b0654e2c</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上海福泰珠宝首饰有限公司</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{'010********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>158fa3a209b6419e58e81b29b0654e2c</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上海福泰珠宝首饰有限公司</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，手机</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{'18511171113', '18811711191'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>珠宝</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>158fa3a209b6419e58e81b29b0654e2c</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上海福泰珠宝首饰有限公司</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，固话</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{'01060889333'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>广告公司</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>45cd3d451a36e0845904cf2a2ee29090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>河南广新广告有限公司</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，手机</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{'185********', '188********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>广告公司</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>45cd3d451a36e0845904cf2a2ee29090</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>河南广新广告有限公司</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ES没有详情页有，固话</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{'010********'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>广告公司</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>45cd3d451a36e0845904cf2a2ee29090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>河南广新广告有限公司</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，手机</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{'18511171113', '18811711191'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>广告公司</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>45cd3d451a36e0845904cf2a2ee29090</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>河南广新广告有限公司</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ES有详情页没有，固话</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{'01060889333'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
